--- a/SCA averages.xlsx
+++ b/SCA averages.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna\Documents\GitHub\LRDC-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC527F9-ECF9-4EBC-A04A-E31D25CA88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF245E1-1B94-4485-ADFA-B98C306E3808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="744" windowWidth="12960" windowHeight="9000" xr2:uid="{EFB0949A-FD66-4E86-8FF8-C6A4DD6A3B08}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{EFB0949A-FD66-4E86-8FF8-C6A4DD6A3B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
